--- a/doc/task10/burn-down-chart.xlsx
+++ b/doc/task10/burn-down-chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="1080" windowWidth="25600" windowHeight="15520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -455,13 +455,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -494,8 +494,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="-2118618328"/>
-        <c:axId val="-2118615144"/>
+        <c:axId val="-2140210168"/>
+        <c:axId val="-2140207080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -679,13 +679,13 @@
                   <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>165.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>141.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>107.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -720,11 +720,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2118618328"/>
-        <c:axId val="-2118615144"/>
+        <c:axId val="-2140210168"/>
+        <c:axId val="-2140207080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2118618328"/>
+        <c:axId val="-2140210168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,7 +751,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118615144"/>
+        <c:crossAx val="-2140207080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -759,7 +759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118615144"/>
+        <c:axId val="-2140207080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,7 +796,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118618328"/>
+        <c:crossAx val="-2140210168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1467,22 +1467,24 @@
       <c r="C10" s="11">
         <v>25.7</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11">
+        <v>14.5</v>
+      </c>
       <c r="E10" s="11">
         <f>$E$9-SUM($C$10:C10)</f>
         <v>154.30000000000001</v>
       </c>
-      <c r="F10" s="11" t="e">
+      <c r="F10" s="11">
         <f>IF(D10="",NA(),$F$9-SUM($D$10:D10))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G10" s="12" t="e">
+        <v>165.5</v>
+      </c>
+      <c r="G10" s="12">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H10" s="13" t="e">
+        <v>14.5</v>
+      </c>
+      <c r="H10" s="13">
         <f>F10-E10</f>
-        <v>#N/A</v>
+        <v>11.199999999999989</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1507,22 +1509,24 @@
       <c r="C11" s="11">
         <v>25.7</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>24</v>
+      </c>
       <c r="E11" s="1">
         <f>$E$9-SUM($C$10:C11)</f>
         <v>128.6</v>
       </c>
-      <c r="F11" s="1" t="e">
+      <c r="F11" s="1">
         <f>IF(D11="",NA(),$F$9-SUM($D$10:D11))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G11" s="4" t="e">
+        <v>141.5</v>
+      </c>
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H11" s="6" t="e">
+        <v>24</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" ref="H11:H18" si="1">F11-E11</f>
-        <v>#N/A</v>
+        <v>12.900000000000006</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1547,22 +1551,24 @@
       <c r="C12" s="11">
         <v>25.7</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="11">
+        <v>34</v>
+      </c>
       <c r="E12" s="11">
         <f>$E$9-SUM($C$10:C12)</f>
         <v>102.9</v>
       </c>
-      <c r="F12" s="11" t="e">
+      <c r="F12" s="11">
         <f>IF(D12="",NA(),$F$9-SUM($D$10:D12))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="12" t="e">
+        <v>107.5</v>
+      </c>
+      <c r="G12" s="12">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="13" t="e">
+        <v>34</v>
+      </c>
+      <c r="H12" s="13">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>4.5999999999999943</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>

--- a/doc/task10/burn-down-chart.xlsx
+++ b/doc/task10/burn-down-chart.xlsx
@@ -464,22 +464,22 @@
                   <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -494,8 +494,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="-2140210168"/>
-        <c:axId val="-2140207080"/>
+        <c:axId val="-2019600952"/>
+        <c:axId val="-2019597864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -571,34 +571,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>180.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>154.3</c:v>
+                  <c:v>102.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128.6</c:v>
+                  <c:v>85.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102.9</c:v>
+                  <c:v>68.69999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.2</c:v>
+                  <c:v>51.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.5</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.5</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.5</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.80000000000001</c:v>
+                  <c:v>17.40000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.100000000000023</c:v>
+                  <c:v>0.300000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,34 +676,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>180.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>165.5</c:v>
+                  <c:v>105.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>141.5</c:v>
+                  <c:v>81.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107.5</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -720,11 +720,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2140210168"/>
-        <c:axId val="-2140207080"/>
+        <c:axId val="-2019600952"/>
+        <c:axId val="-2019597864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2140210168"/>
+        <c:axId val="-2019600952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,7 +751,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140207080"/>
+        <c:crossAx val="-2019597864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -759,7 +759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140207080"/>
+        <c:axId val="-2019597864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,7 +796,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140210168"/>
+        <c:crossAx val="-2019600952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -885,13 +885,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1431,10 +1431,10 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="F9" s="1">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="G9" s="4" t="e">
         <f t="shared" ref="G9:G18" si="0">IF(D9="",NA(),D9)</f>
@@ -1465,18 +1465,18 @@
         <v>47</v>
       </c>
       <c r="C10" s="11">
-        <v>25.7</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D10" s="11">
         <v>14.5</v>
       </c>
       <c r="E10" s="11">
         <f>$E$9-SUM($C$10:C10)</f>
-        <v>154.30000000000001</v>
+        <v>102.9</v>
       </c>
       <c r="F10" s="11">
         <f>IF(D10="",NA(),$F$9-SUM($D$10:D10))</f>
-        <v>165.5</v>
+        <v>105.5</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="0"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="H10" s="13">
         <f>F10-E10</f>
-        <v>11.199999999999989</v>
+        <v>2.5999999999999943</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1507,18 +1507,18 @@
         <v>48</v>
       </c>
       <c r="C11" s="11">
-        <v>25.7</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D11" s="1">
         <v>24</v>
       </c>
       <c r="E11" s="1">
         <f>$E$9-SUM($C$10:C11)</f>
-        <v>128.6</v>
+        <v>85.8</v>
       </c>
       <c r="F11" s="1">
         <f>IF(D11="",NA(),$F$9-SUM($D$10:D11))</f>
-        <v>141.5</v>
+        <v>81.5</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="H11" s="6">
         <f t="shared" ref="H11:H18" si="1">F11-E11</f>
-        <v>12.900000000000006</v>
+        <v>-4.2999999999999972</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1549,18 +1549,18 @@
         <v>49</v>
       </c>
       <c r="C12" s="11">
-        <v>25.7</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D12" s="11">
         <v>34</v>
       </c>
       <c r="E12" s="11">
         <f>$E$9-SUM($C$10:C12)</f>
-        <v>102.9</v>
+        <v>68.699999999999989</v>
       </c>
       <c r="F12" s="11">
         <f>IF(D12="",NA(),$F$9-SUM($D$10:D12))</f>
-        <v>107.5</v>
+        <v>47.5</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="H12" s="13">
         <f t="shared" si="1"/>
-        <v>4.5999999999999943</v>
+        <v>-21.199999999999989</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1591,24 +1591,26 @@
         <v>50</v>
       </c>
       <c r="C13" s="11">
-        <v>25.7</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>16</v>
+      </c>
       <c r="E13" s="1">
         <f>$E$9-SUM($C$10:C13)</f>
-        <v>77.2</v>
-      </c>
-      <c r="F13" s="1" t="e">
+        <v>51.599999999999994</v>
+      </c>
+      <c r="F13" s="1">
         <f>IF(D13="",NA(),$F$9-SUM($D$10:D13))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="4" t="e">
+        <v>31.5</v>
+      </c>
+      <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="6" t="e">
+        <v>16</v>
+      </c>
+      <c r="H13" s="6">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>-20.099999999999994</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1631,24 +1633,26 @@
         <v>51</v>
       </c>
       <c r="C14" s="11">
-        <v>25.7</v>
-      </c>
-      <c r="D14" s="11"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D14" s="11">
+        <v>14</v>
+      </c>
       <c r="E14" s="11">
         <f>$E$9-SUM($C$10:C14)</f>
-        <v>51.5</v>
-      </c>
-      <c r="F14" s="11" t="e">
+        <v>34.5</v>
+      </c>
+      <c r="F14" s="11">
         <f>IF(D14="",NA(),$F$9-SUM($D$10:D14))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G14" s="12" t="e">
+        <v>17.5</v>
+      </c>
+      <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H14" s="13" t="e">
+        <v>14</v>
+      </c>
+      <c r="H14" s="13">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>-17</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1673,22 +1677,24 @@
       <c r="C15" s="11">
         <v>0</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
       <c r="E15" s="1">
         <f>$E$9-SUM($C$10:C15)</f>
-        <v>51.5</v>
-      </c>
-      <c r="F15" s="1" t="e">
+        <v>34.5</v>
+      </c>
+      <c r="F15" s="1">
         <f>IF(D15="",NA(),$F$9-SUM($D$10:D15))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G15" s="4" t="e">
+        <v>17.5</v>
+      </c>
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H15" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>-17</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1713,22 +1719,24 @@
       <c r="C16" s="11">
         <v>0</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
       <c r="E16" s="11">
         <f>$E$9-SUM($C$10:C16)</f>
-        <v>51.5</v>
-      </c>
-      <c r="F16" s="11" t="e">
+        <v>34.5</v>
+      </c>
+      <c r="F16" s="11">
         <f>IF(D16="",NA(),$F$9-SUM($D$10:D16))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G16" s="12" t="e">
+        <v>17.5</v>
+      </c>
+      <c r="G16" s="12">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H16" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>-17</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1751,24 +1759,26 @@
         <v>2</v>
       </c>
       <c r="C17" s="11">
-        <v>25.7</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
       <c r="E17" s="1">
         <f>$E$9-SUM($C$10:C17)</f>
-        <v>25.800000000000011</v>
-      </c>
-      <c r="F17" s="1" t="e">
+        <v>17.400000000000006</v>
+      </c>
+      <c r="F17" s="1">
         <f>IF(D17="",NA(),$F$9-SUM($D$10:D17))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G17" s="4" t="e">
+        <v>2.5</v>
+      </c>
+      <c r="G17" s="4">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H17" s="6" t="e">
+        <v>15</v>
+      </c>
+      <c r="H17" s="6">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>-14.900000000000006</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1791,24 +1801,26 @@
         <v>3</v>
       </c>
       <c r="C18" s="11">
-        <v>25.7</v>
-      </c>
-      <c r="D18" s="11"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D18" s="11">
+        <v>10</v>
+      </c>
       <c r="E18" s="11">
         <f>$E$9-SUM($C$10:C18)</f>
-        <v>0.10000000000002274</v>
-      </c>
-      <c r="F18" s="11" t="e">
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="F18" s="11">
         <f>IF(D18="",NA(),$F$9-SUM($D$10:D18))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G18" s="12" t="e">
+        <v>-7.5</v>
+      </c>
+      <c r="G18" s="12">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H18" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="H18" s="13">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>-7.8000000000000114</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
